--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N2">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q2">
-        <v>0.099298785215</v>
+        <v>0.2622777923806667</v>
       </c>
       <c r="R2">
-        <v>0.8936890669349999</v>
+        <v>2.360500131426</v>
       </c>
       <c r="S2">
-        <v>0.000798236334383427</v>
+        <v>0.002333510239865594</v>
       </c>
       <c r="T2">
-        <v>0.000798236334383427</v>
+        <v>0.002333510239865594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q3">
-        <v>43.35802455984999</v>
+        <v>41.14413470882</v>
       </c>
       <c r="R3">
-        <v>390.22222103865</v>
+        <v>370.29721237938</v>
       </c>
       <c r="S3">
-        <v>0.3485435447757433</v>
+        <v>0.3660632445544332</v>
       </c>
       <c r="T3">
-        <v>0.3485435447757433</v>
+        <v>0.3660632445544332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N4">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q4">
-        <v>3.789308606428333</v>
+        <v>0.048445975154</v>
       </c>
       <c r="R4">
-        <v>34.103777457855</v>
+        <v>0.436013776386</v>
       </c>
       <c r="S4">
-        <v>0.03046123681466756</v>
+        <v>0.0004310284072318825</v>
       </c>
       <c r="T4">
-        <v>0.03046123681466756</v>
+        <v>0.0004310284072318825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05870933333333334</v>
+        <v>0.208416</v>
       </c>
       <c r="N5">
-        <v>0.176128</v>
+        <v>0.625248</v>
       </c>
       <c r="O5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q5">
-        <v>0.4394185181866667</v>
+        <v>1.480269221184</v>
       </c>
       <c r="R5">
-        <v>3.954766663680001</v>
+        <v>13.322422990656</v>
       </c>
       <c r="S5">
-        <v>0.003532367757148922</v>
+        <v>0.01317009478399649</v>
       </c>
       <c r="T5">
-        <v>0.003532367757148922</v>
+        <v>0.01317009478399649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.299809999999999</v>
+        <v>7.102474</v>
       </c>
       <c r="H6">
-        <v>24.89943</v>
+        <v>21.307422</v>
       </c>
       <c r="I6">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J6">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013267</v>
+        <v>0.050388</v>
       </c>
       <c r="N6">
-        <v>0.039801</v>
+        <v>0.151164</v>
       </c>
       <c r="O6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q6">
-        <v>0.11011357927</v>
+        <v>0.357879459912</v>
       </c>
       <c r="R6">
-        <v>0.9910222134299999</v>
+        <v>3.220915139208</v>
       </c>
       <c r="S6">
-        <v>0.0008851735667461731</v>
+        <v>0.00318408728684945</v>
       </c>
       <c r="T6">
-        <v>0.0008851735667461731</v>
+        <v>0.00318408728684945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
         <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.792929999999999</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N7">
-        <v>17.37879</v>
+        <v>0.110783</v>
       </c>
       <c r="O7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q7">
-        <v>48.08021834329999</v>
+        <v>0.3064926170766668</v>
       </c>
       <c r="R7">
-        <v>432.7219650896999</v>
+        <v>2.75843355369</v>
       </c>
       <c r="S7">
-        <v>0.3865039956290728</v>
+        <v>0.002726893702664573</v>
       </c>
       <c r="T7">
-        <v>0.3865039956290728</v>
+        <v>0.002726893702664573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
         <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5062776666666666</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N8">
-        <v>1.518833</v>
+        <v>17.37879</v>
       </c>
       <c r="O8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q8">
-        <v>4.202008440576666</v>
+        <v>48.0802183433</v>
       </c>
       <c r="R8">
-        <v>37.81807596519</v>
+        <v>432.7219650897</v>
       </c>
       <c r="S8">
-        <v>0.03377882022817996</v>
+        <v>0.4277742344125907</v>
       </c>
       <c r="T8">
-        <v>0.03377882022817996</v>
+        <v>0.4277742344125908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
         <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05870933333333334</v>
+        <v>0.006821</v>
       </c>
       <c r="N9">
-        <v>0.176128</v>
+        <v>0.020463</v>
       </c>
       <c r="O9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q9">
-        <v>0.4872763118933333</v>
+        <v>0.05661300401</v>
       </c>
       <c r="R9">
-        <v>4.38548680704</v>
+        <v>0.50951703609</v>
       </c>
       <c r="S9">
-        <v>0.003917083740706766</v>
+        <v>0.0005036912327489339</v>
       </c>
       <c r="T9">
-        <v>0.003917083740706766</v>
+        <v>0.0005036912327489339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H10">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I10">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J10">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.013267</v>
+        <v>0.208416</v>
       </c>
       <c r="N10">
-        <v>0.039801</v>
+        <v>0.625248</v>
       </c>
       <c r="O10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q10">
-        <v>0.006544836639</v>
+        <v>1.72981320096</v>
       </c>
       <c r="R10">
-        <v>0.05890352975099999</v>
+        <v>15.56831880864</v>
       </c>
       <c r="S10">
-        <v>5.261218852317365E-05</v>
+        <v>0.01539031109288987</v>
       </c>
       <c r="T10">
-        <v>5.261218852317365E-05</v>
+        <v>0.01539031109288987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H11">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I11">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J11">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.792929999999999</v>
+        <v>0.050388</v>
       </c>
       <c r="N11">
-        <v>17.37879</v>
+        <v>0.151164</v>
       </c>
       <c r="O11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q11">
-        <v>2.85775084881</v>
+        <v>0.41821082628</v>
       </c>
       <c r="R11">
-        <v>25.71975763929</v>
+        <v>3.76389743652</v>
       </c>
       <c r="S11">
-        <v>0.02297269354500251</v>
+        <v>0.003720861139972626</v>
       </c>
       <c r="T11">
-        <v>0.02297269354500251</v>
+        <v>0.003720861139972626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H12">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5062776666666666</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N12">
-        <v>1.518833</v>
+        <v>0.110783</v>
       </c>
       <c r="O12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q12">
-        <v>0.249755379687</v>
+        <v>0.009437209874888889</v>
       </c>
       <c r="R12">
-        <v>2.247798417183</v>
+        <v>0.084934888874</v>
       </c>
       <c r="S12">
-        <v>0.002007716593332263</v>
+        <v>8.396374576331541E-05</v>
       </c>
       <c r="T12">
-        <v>0.002007716593332263</v>
+        <v>8.396374576331542E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,51 +1225,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H13">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05870933333333334</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N13">
-        <v>0.176128</v>
+        <v>17.37879</v>
       </c>
       <c r="O13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q13">
-        <v>0.028962312192</v>
+        <v>1.480437328846666</v>
       </c>
       <c r="R13">
-        <v>0.260660809728</v>
+        <v>13.32393595962</v>
       </c>
       <c r="S13">
-        <v>0.0002328202693452308</v>
+        <v>0.01317159045371625</v>
       </c>
       <c r="T13">
-        <v>0.0002328202693452308</v>
+        <v>0.01317159045371626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H14">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I14">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J14">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,60 +1305,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.013267</v>
+        <v>0.006821</v>
       </c>
       <c r="N14">
-        <v>0.039801</v>
+        <v>0.020463</v>
       </c>
       <c r="O14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q14">
-        <v>0.02709283257399999</v>
+        <v>0.001743170212666666</v>
       </c>
       <c r="R14">
-        <v>0.243835493166</v>
+        <v>0.015688531914</v>
       </c>
       <c r="S14">
-        <v>0.0002177920234885893</v>
+        <v>1.550914968501235E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002177920234885893</v>
+        <v>1.550914968501235E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H15">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I15">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J15">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.792929999999999</v>
+        <v>0.208416</v>
       </c>
       <c r="N15">
-        <v>17.37879</v>
+        <v>0.625248</v>
       </c>
       <c r="O15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q15">
-        <v>11.82986979746</v>
+        <v>0.053262654016</v>
       </c>
       <c r="R15">
-        <v>106.46882817714</v>
+        <v>0.479363886144</v>
       </c>
       <c r="S15">
-        <v>0.09509715433992262</v>
+        <v>0.0004738828530642917</v>
       </c>
       <c r="T15">
-        <v>0.09509715433992263</v>
+        <v>0.0004738828530642918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H16">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I16">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J16">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5062776666666666</v>
+        <v>0.050388</v>
       </c>
       <c r="N16">
-        <v>1.518833</v>
+        <v>0.151164</v>
       </c>
       <c r="O16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q16">
-        <v>1.033880761208666</v>
+        <v>0.012877123688</v>
       </c>
       <c r="R16">
-        <v>9.304926850877997</v>
+        <v>0.115894113192</v>
       </c>
       <c r="S16">
-        <v>0.008311090485446208</v>
+        <v>0.0001145689831884478</v>
       </c>
       <c r="T16">
-        <v>0.008311090485446209</v>
+        <v>0.0001145689831884478</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H17">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05870933333333334</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N17">
-        <v>0.176128</v>
+        <v>0.110783</v>
       </c>
       <c r="O17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q17">
-        <v>0.1198916212053333</v>
+        <v>0.05142715496344445</v>
       </c>
       <c r="R17">
-        <v>1.079024590848</v>
+        <v>0.462844394671</v>
       </c>
       <c r="S17">
-        <v>0.0009637766265420029</v>
+        <v>0.0004575522449883116</v>
       </c>
       <c r="T17">
-        <v>0.0009637766265420031</v>
+        <v>0.0004575522449883116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H18">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I18">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J18">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.013267</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N18">
-        <v>0.039801</v>
+        <v>17.37879</v>
       </c>
       <c r="O18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q18">
-        <v>0.012311590262</v>
+        <v>8.067498861803331</v>
       </c>
       <c r="R18">
-        <v>0.110804312358</v>
+        <v>72.60748975623</v>
       </c>
       <c r="S18">
-        <v>9.896957611204524E-05</v>
+        <v>0.0717772977774606</v>
       </c>
       <c r="T18">
-        <v>9.896957611204524E-05</v>
+        <v>0.07177729777746061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H19">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I19">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J19">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>5.792929999999999</v>
+        <v>0.006821</v>
       </c>
       <c r="N19">
-        <v>17.37879</v>
+        <v>0.020463</v>
       </c>
       <c r="O19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q19">
-        <v>5.37575793898</v>
+        <v>0.009499236092333333</v>
       </c>
       <c r="R19">
-        <v>48.38182145082</v>
+        <v>0.08549312483099999</v>
       </c>
       <c r="S19">
-        <v>0.04321427802417655</v>
+        <v>8.45155988662143E-05</v>
       </c>
       <c r="T19">
-        <v>0.04321427802417655</v>
+        <v>8.451559886621431E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H20">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I20">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J20">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5062776666666666</v>
+        <v>0.208416</v>
       </c>
       <c r="N20">
-        <v>1.518833</v>
+        <v>0.625248</v>
       </c>
       <c r="O20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q20">
-        <v>0.4698185867793334</v>
+        <v>0.290249639264</v>
       </c>
       <c r="R20">
-        <v>4.228367281014</v>
+        <v>2.612246753376</v>
       </c>
       <c r="S20">
-        <v>0.003776745765055803</v>
+        <v>0.002582378398079596</v>
       </c>
       <c r="T20">
-        <v>0.003776745765055803</v>
+        <v>0.002582378398079596</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H21">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I21">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J21">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05870933333333334</v>
+        <v>0.050388</v>
       </c>
       <c r="N21">
-        <v>0.176128</v>
+        <v>0.151164</v>
       </c>
       <c r="O21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q21">
-        <v>0.05448143940266668</v>
+        <v>0.070172629852</v>
       </c>
       <c r="R21">
-        <v>0.4903329546240001</v>
+        <v>0.631553668668</v>
       </c>
       <c r="S21">
-        <v>0.0004379616969790284</v>
+        <v>0.00062433250193092</v>
       </c>
       <c r="T21">
-        <v>0.0004379616969790284</v>
+        <v>0.0006243325019309201</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H22">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I22">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J22">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N22">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q22">
-        <v>0.003677298414333333</v>
+        <v>0.0420964814068889</v>
       </c>
       <c r="R22">
-        <v>0.03309568572899999</v>
+        <v>0.378868332662</v>
       </c>
       <c r="S22">
-        <v>2.956081688548206E-05</v>
+        <v>0.0003745363628908135</v>
       </c>
       <c r="T22">
-        <v>2.956081688548206E-05</v>
+        <v>0.0003745363628908135</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H23">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I23">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J23">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>17.37879</v>
       </c>
       <c r="O23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q23">
-        <v>1.605663096656666</v>
+        <v>6.603774136006667</v>
       </c>
       <c r="R23">
-        <v>14.45096786991</v>
+        <v>59.43396722406</v>
       </c>
       <c r="S23">
-        <v>0.01290749551220439</v>
+        <v>0.05875440092833051</v>
       </c>
       <c r="T23">
-        <v>0.01290749551220439</v>
+        <v>0.05875440092833053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H24">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I24">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J24">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N24">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q24">
-        <v>0.1403281872952222</v>
+        <v>0.007775744464666667</v>
       </c>
       <c r="R24">
-        <v>1.262953685657</v>
+        <v>0.06998170018200001</v>
       </c>
       <c r="S24">
-        <v>0.001128060706832174</v>
+        <v>6.918153140675658E-05</v>
       </c>
       <c r="T24">
-        <v>0.001128060706832174</v>
+        <v>6.91815314067566E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.139971333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.419914</v>
+      </c>
+      <c r="I25">
+        <v>0.06182302089771886</v>
+      </c>
+      <c r="J25">
+        <v>0.06182302089771888</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.208416</v>
+      </c>
+      <c r="N25">
+        <v>0.625248</v>
+      </c>
+      <c r="O25">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P25">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q25">
+        <v>0.237588265408</v>
+      </c>
+      <c r="R25">
+        <v>2.138294388672001</v>
+      </c>
+      <c r="S25">
+        <v>0.002113845191272626</v>
+      </c>
+      <c r="T25">
+        <v>0.002113845191272626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.139971333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.419914</v>
+      </c>
+      <c r="I26">
+        <v>0.06182302089771886</v>
+      </c>
+      <c r="J26">
+        <v>0.06182302089771888</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.050388</v>
+      </c>
+      <c r="N26">
+        <v>0.151164</v>
+      </c>
+      <c r="O26">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P26">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q26">
+        <v>0.057440875544</v>
+      </c>
+      <c r="R26">
+        <v>0.516967879896</v>
+      </c>
+      <c r="S26">
+        <v>0.0005110568838181573</v>
+      </c>
+      <c r="T26">
+        <v>0.0005110568838181574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.831529</v>
-      </c>
-      <c r="I25">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J25">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K25">
+      <c r="G27">
+        <v>0.248809</v>
+      </c>
+      <c r="H27">
+        <v>0.746427</v>
+      </c>
+      <c r="I27">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J27">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03692766666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.110783</v>
+      </c>
+      <c r="O27">
+        <v>0.006058202227135638</v>
+      </c>
+      <c r="P27">
+        <v>0.006058202227135636</v>
+      </c>
+      <c r="Q27">
+        <v>0.009187935815666667</v>
+      </c>
+      <c r="R27">
+        <v>0.08269142234099999</v>
+      </c>
+      <c r="S27">
+        <v>8.174593096303042E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.174593096303042E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="F28">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.05870933333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.176128</v>
-      </c>
-      <c r="O25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="P25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="Q25">
-        <v>0.01627283774577778</v>
-      </c>
-      <c r="R25">
-        <v>0.146455539712</v>
-      </c>
-      <c r="S25">
-        <v>0.0001308129835030825</v>
-      </c>
-      <c r="T25">
-        <v>0.0001308129835030825</v>
+      <c r="G28">
+        <v>0.248809</v>
+      </c>
+      <c r="H28">
+        <v>0.746427</v>
+      </c>
+      <c r="I28">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J28">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N28">
+        <v>17.37879</v>
+      </c>
+      <c r="O28">
+        <v>0.9503644447516544</v>
+      </c>
+      <c r="P28">
+        <v>0.9503644447516543</v>
+      </c>
+      <c r="Q28">
+        <v>1.44133312037</v>
+      </c>
+      <c r="R28">
+        <v>12.97199808333</v>
+      </c>
+      <c r="S28">
+        <v>0.01282367662512301</v>
+      </c>
+      <c r="T28">
+        <v>0.01282367662512302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.248809</v>
+      </c>
+      <c r="H29">
+        <v>0.746427</v>
+      </c>
+      <c r="I29">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J29">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006821</v>
+      </c>
+      <c r="N29">
+        <v>0.020463</v>
+      </c>
+      <c r="O29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="P29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="Q29">
+        <v>0.001697126189</v>
+      </c>
+      <c r="R29">
+        <v>0.015274135701</v>
+      </c>
+      <c r="S29">
+        <v>1.509949166655977E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.509949166655977E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.248809</v>
+      </c>
+      <c r="H30">
+        <v>0.746427</v>
+      </c>
+      <c r="I30">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J30">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.208416</v>
+      </c>
+      <c r="N30">
+        <v>0.625248</v>
+      </c>
+      <c r="O30">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P30">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q30">
+        <v>0.051855776544</v>
+      </c>
+      <c r="R30">
+        <v>0.466701988896</v>
+      </c>
+      <c r="S30">
+        <v>0.0004613657315903418</v>
+      </c>
+      <c r="T30">
+        <v>0.0004613657315903418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.248809</v>
+      </c>
+      <c r="H31">
+        <v>0.746427</v>
+      </c>
+      <c r="I31">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J31">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.050388</v>
+      </c>
+      <c r="N31">
+        <v>0.151164</v>
+      </c>
+      <c r="O31">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P31">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q31">
+        <v>0.012536987892</v>
+      </c>
+      <c r="R31">
+        <v>0.112832891028</v>
+      </c>
+      <c r="S31">
+        <v>0.0001115427629518566</v>
+      </c>
+      <c r="T31">
+        <v>0.0001115427629518566</v>
       </c>
     </row>
   </sheetData>
